--- a/biology/Zoologie/Hauffiosaurus/Hauffiosaurus.xlsx
+++ b/biology/Zoologie/Hauffiosaurus/Hauffiosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauffiosaurus est un genre fossile de plésiosaures (des animaux de l'ordre des Plesiosauria), de la super-famille des pliosaures et de la famille des pliosauridés.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution géographique et datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauffiosaurus a vécu à la fin du Jurassique inférieur (Toarcien), soit il y a environ entre 184,2 et 174,7 millions d'années, en Europe. Ses fossiles ont été découverts en Allemagne dans les schistes bitumineux d'Holzmaden et en Angleterre dans le Yorkshire.
 </t>
@@ -544,17 +558,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hauffiosaurus zanoni
-Le genre Hauffiosaurus est créé pour l'espèce type Hauffiosaurus zanoni par Frank Robin O’Keefe en 2001[1].
-L'holotype d'H. zanoni est un squelette articulé quasi complet exposé en vue ventrale. Il a été découvert au début du XIXe siècle dans les couches du lagerstätte des argiles bitumineuses à Posidonies dites « Posidonienschiefer » du Toarcien inférieur d'Holzmaden dans le Bade-Wurtemberg dans le sud-ouest de l'Allemagne[2]. Il n'a cependant été décrit dans le détail qu'en 2001 par F. R. O’Keefe[1].
+          <t>Hauffiosaurus zanoni</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hauffiosaurus est créé pour l'espèce type Hauffiosaurus zanoni par Frank Robin O’Keefe en 2001.
+L'holotype d'H. zanoni est un squelette articulé quasi complet exposé en vue ventrale. Il a été découvert au début du XIXe siècle dans les couches du lagerstätte des argiles bitumineuses à Posidonies dites « Posidonienschiefer » du Toarcien inférieur d'Holzmaden dans le Bade-Wurtemberg dans le sud-ouest de l'Allemagne. Il n'a cependant été décrit dans le détail qu'en 2001 par F. R. O’Keefe.
 C'est un plésiosaure de taille moyenne, mesurant 3,40 mètres. Son crâne mesure environ 43 centimètres de long. L'holotype est un individu adulte, mais la fusion incomplète de la ceinture pectorale et pelvienne indique que ce n'est pas un adulte âgé.
-Autres espèces
-Deux espèces sont rattachés au genre en 2011 par Benson et ses collègues en 2011[3] :
-Hauffiosaurus tomistomimus
-H. tomistomimus, n'est connu que par un seul spécimen, constitué d'un squelette articulé, découvert dans le Yorkshire, dans la zone à ammonites à Hildoceras bifrons, ce qui le date précisément de la partie inférieure du Toarcien moyen[4]. Il mesure 4,83 mètres de long[3]. 
-Hauffiosaurus longirostris
-En 2011, Benson et ses collègues ont réattribué  Macroplata longirostris (à l’origine Plesiosaurus longirostris) au genre Hauffiosaurus, sous le nom de H. longirostris. Il provient du sommet du Toarcien inférieur (sous-zone à Harpoceras falciferum du Yorkshire[3],[4]. 
-Peu de plésiosaures du Jurassique inférieur possèdent une long museau allongé (longirostre) comme Hauffiosaurus. Cette morphologie qui indique que ces animaux marins se nourrissaient de poissons. Leurs dents sont fines et allongées avec de fines lignes de crêtes longitudinales. Ce type de dents, associé à leur long rostre, révèlent leur faculté à capturer des proies à chair tendre[5].
 </t>
         </is>
       </c>
@@ -580,12 +592,134 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux espèces sont rattachés au genre en 2011 par Benson et ses collègues en 2011 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hauffiosaurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hauffiosaurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hauffiosaurus tomistomimus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H. tomistomimus, n'est connu que par un seul spécimen, constitué d'un squelette articulé, découvert dans le Yorkshire, dans la zone à ammonites à Hildoceras bifrons, ce qui le date précisément de la partie inférieure du Toarcien moyen. Il mesure 4,83 mètres de long. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hauffiosaurus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hauffiosaurus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hauffiosaurus longirostris</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Benson et ses collègues ont réattribué  Macroplata longirostris (à l’origine Plesiosaurus longirostris) au genre Hauffiosaurus, sous le nom de H. longirostris. Il provient du sommet du Toarcien inférieur (sous-zone à Harpoceras falciferum du Yorkshire,. 
+Peu de plésiosaures du Jurassique inférieur possèdent une long museau allongé (longirostre) comme Hauffiosaurus. Cette morphologie qui indique que ces animaux marins se nourrissaient de poissons. Leurs dents sont fines et allongées avec de fines lignes de crêtes longitudinales. Ce type de dents, associé à leur long rostre, révèlent leur faculté à capturer des proies à chair tendre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hauffiosaurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hauffiosaurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir été considéré comme un Pliosauroidea basal[3], Benson et Druckenmiller en 2014 l'ont intégré à la famille des Pliosauridae comme le montre leur cladogramme ci-dessous[6] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été considéré comme un Pliosauroidea basal, Benson et Druckenmiller en 2014 l'ont intégré à la famille des Pliosauridae comme le montre leur cladogramme ci-dessous :
 </t>
         </is>
       </c>
